--- a/data/group/FlightIncrease/airlinesgate.xlsx
+++ b/data/group/FlightIncrease/airlinesgate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm\GAP\data\group\FlightIncrease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C1901-0578-4999-9535-D77719180C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F427EE4-0388-4DFA-8556-2C9FA39DF2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="0" windowWidth="17712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="930" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>AirMacau</t>
   </si>
   <si>
-    <t>Aisa Medical</t>
-  </si>
-  <si>
     <t>AllNipponAirways</t>
   </si>
   <si>
@@ -328,6 +325,10 @@
   </si>
   <si>
     <t>FarEastern</t>
+  </si>
+  <si>
+    <t>AisaMedical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -372,7 +373,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,7 +659,7 @@
   <dimension ref="A1:BC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1361,7 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
         <v>874</v>
@@ -1527,7 +1528,7 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>101</v>
@@ -1598,7 +1599,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>101</v>
@@ -1669,7 +1670,7 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>874</v>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>409</v>
@@ -1872,40 +1873,40 @@
         <v>419</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y12" s="1">
         <v>204</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>110</v>
@@ -2042,7 +2043,7 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>874</v>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>215</v>
@@ -2278,7 +2279,7 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>601</v>
@@ -2357,7 +2358,7 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>874</v>
@@ -2524,7 +2525,7 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>217</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>110</v>
@@ -2666,7 +2667,7 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>874</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>409</v>
@@ -2869,40 +2870,40 @@
         <v>419</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y21" s="1">
         <v>204</v>
@@ -2966,7 +2967,7 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>101</v>
@@ -3037,7 +3038,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>101</v>
@@ -3108,7 +3109,7 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>874</v>
@@ -3275,7 +3276,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>110</v>
@@ -3348,7 +3349,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>409</v>
@@ -3384,40 +3385,40 @@
         <v>419</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y26" s="1">
         <v>204</v>
@@ -3481,7 +3482,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>110</v>
@@ -3554,7 +3555,7 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>101</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>101</v>
@@ -3696,7 +3697,7 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>501</v>
@@ -3763,7 +3764,7 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>101</v>
@@ -3834,7 +3835,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>874</v>
@@ -4074,7 +4075,7 @@
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
         <v>110</v>
@@ -4147,7 +4148,7 @@
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
         <v>409</v>
@@ -4183,40 +4184,40 @@
         <v>419</v>
       </c>
       <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y35" s="1">
         <v>204</v>
@@ -4280,7 +4281,7 @@
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
         <v>101</v>
@@ -4351,7 +4352,7 @@
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
         <v>874</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
         <v>874</v>
@@ -4685,7 +4686,7 @@
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
         <v>101</v>
@@ -4756,7 +4757,7 @@
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1">
         <v>101</v>
@@ -4827,7 +4828,7 @@
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
         <v>222</v>
@@ -4896,7 +4897,7 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1">
         <v>874</v>
@@ -5063,7 +5064,7 @@
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
         <v>101</v>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
         <v>101</v>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
         <v>110</v>
@@ -5278,7 +5279,7 @@
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1">
         <v>107</v>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>218</v>
@@ -5420,7 +5421,7 @@
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>110</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
         <v>110</v>
@@ -5566,7 +5567,7 @@
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
         <v>107</v>
@@ -5641,7 +5642,7 @@
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1">
         <v>874</v>
@@ -5808,7 +5809,7 @@
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1">
         <v>110</v>
@@ -5881,7 +5882,7 @@
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
         <v>101</v>
@@ -5952,7 +5953,7 @@
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
         <v>110</v>
@@ -6025,7 +6026,7 @@
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1">
         <v>101</v>
@@ -6096,7 +6097,7 @@
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
         <v>110</v>
@@ -6169,7 +6170,7 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1">
         <v>101</v>
@@ -6240,7 +6241,7 @@
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1">
         <v>409</v>
@@ -6276,40 +6277,40 @@
         <v>419</v>
       </c>
       <c r="M58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="S58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="T58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="U58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="W58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y58" s="1">
         <v>204</v>
@@ -6373,7 +6374,7 @@
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1">
         <v>874</v>
@@ -6540,7 +6541,7 @@
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1">
         <v>101</v>
@@ -6611,7 +6612,7 @@
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1">
         <v>874</v>
@@ -6778,7 +6779,7 @@
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1">
         <v>409</v>
@@ -6814,40 +6815,40 @@
         <v>419</v>
       </c>
       <c r="M62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="S62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="V62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="W62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y62" s="1">
         <v>204</v>
@@ -6911,7 +6912,7 @@
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1">
         <v>110</v>
@@ -6984,7 +6985,7 @@
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
         <v>110</v>
@@ -7057,7 +7058,7 @@
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
         <v>101</v>
@@ -7128,7 +7129,7 @@
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
         <v>101</v>
@@ -7199,7 +7200,7 @@
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
         <v>101</v>
@@ -7270,7 +7271,7 @@
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1">
         <v>874</v>
@@ -7437,7 +7438,7 @@
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
         <v>409</v>
@@ -7473,40 +7474,40 @@
         <v>419</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="U69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="1" t="s">
+      <c r="V69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="W69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Y69" s="1">
         <v>204</v>
@@ -7570,7 +7571,7 @@
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
         <v>226</v>
@@ -7641,7 +7642,7 @@
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
         <v>110</v>
@@ -7714,7 +7715,7 @@
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
         <v>874</v>
@@ -7881,7 +7882,7 @@
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
         <v>874</v>
@@ -8048,7 +8049,7 @@
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
         <v>110</v>
@@ -8121,7 +8122,7 @@
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1">
         <v>110</v>
@@ -8194,7 +8195,7 @@
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
         <v>101</v>
@@ -8265,7 +8266,7 @@
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1">
         <v>110</v>
@@ -8338,7 +8339,7 @@
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1">
         <v>101</v>
